--- a/other/class2.xlsx
+++ b/other/class2.xlsx
@@ -401,7 +401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#"/>
+    <numFmt numFmtId="176" formatCode="#"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -481,7 +481,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="4:8">

--- a/other/class2.xlsx
+++ b/other/class2.xlsx
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1192,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:8">
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:8">
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="4:8">
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="4:8">

--- a/other/class2.xlsx
+++ b/other/class2.xlsx
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:8">
